--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp7-Acvr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp7-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H2">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.28312771147252</v>
+        <v>8.2840475</v>
       </c>
       <c r="N2">
-        <v>8.28312771147252</v>
+        <v>16.568095</v>
       </c>
       <c r="O2">
-        <v>0.1651797650911165</v>
+        <v>0.162064909128062</v>
       </c>
       <c r="P2">
-        <v>0.1651797650911165</v>
+        <v>0.1267883207199013</v>
       </c>
       <c r="Q2">
-        <v>1.48636377418935</v>
+        <v>1.078005862524167</v>
       </c>
       <c r="R2">
-        <v>1.48636377418935</v>
+        <v>6.468035175144999</v>
       </c>
       <c r="S2">
-        <v>0.1651797650911165</v>
+        <v>0.06529157826294492</v>
       </c>
       <c r="T2">
-        <v>0.1651797650911165</v>
+        <v>0.06377314887502929</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H3">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.0884079620058</v>
+        <v>10.55762366666667</v>
       </c>
       <c r="N3">
-        <v>10.0884079620058</v>
+        <v>31.672871</v>
       </c>
       <c r="O3">
-        <v>0.2011801478081069</v>
+        <v>0.2065440016062932</v>
       </c>
       <c r="P3">
-        <v>0.2011801478081069</v>
+        <v>0.2423785067907964</v>
       </c>
       <c r="Q3">
-        <v>1.810311835853984</v>
+        <v>1.373867086951222</v>
       </c>
       <c r="R3">
-        <v>1.810311835853984</v>
+        <v>12.364803782561</v>
       </c>
       <c r="S3">
-        <v>0.2011801478081069</v>
+        <v>0.08321100427090576</v>
       </c>
       <c r="T3">
-        <v>0.2011801478081069</v>
+        <v>0.1219137575914792</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H4">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.86060316207513</v>
+        <v>5.931556333333333</v>
       </c>
       <c r="N4">
-        <v>5.86060316207513</v>
+        <v>17.794669</v>
       </c>
       <c r="O4">
-        <v>0.1168704730053873</v>
+        <v>0.1160419635630586</v>
       </c>
       <c r="P4">
-        <v>0.1168704730053873</v>
+        <v>0.13617475034254</v>
       </c>
       <c r="Q4">
-        <v>1.051654464163688</v>
+        <v>0.771875402842111</v>
       </c>
       <c r="R4">
-        <v>1.051654464163688</v>
+        <v>6.946878625578999</v>
       </c>
       <c r="S4">
-        <v>0.1168704730053873</v>
+        <v>0.0467501755100873</v>
       </c>
       <c r="T4">
-        <v>0.1168704730053873</v>
+        <v>0.06849442107368822</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H5">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.42173999120912</v>
+        <v>5.460941333333333</v>
       </c>
       <c r="N5">
-        <v>5.42173999120912</v>
+        <v>16.382824</v>
       </c>
       <c r="O5">
-        <v>0.1081187891009624</v>
+        <v>0.1068350900861377</v>
       </c>
       <c r="P5">
-        <v>0.1081187891009624</v>
+        <v>0.1253705235037399</v>
       </c>
       <c r="Q5">
-        <v>0.9729027725656426</v>
+        <v>0.7106341160204444</v>
       </c>
       <c r="R5">
-        <v>0.9729027725656426</v>
+        <v>6.395707044183999</v>
       </c>
       <c r="S5">
-        <v>0.1081187891009624</v>
+        <v>0.04304097465094015</v>
       </c>
       <c r="T5">
-        <v>0.1081187891009624</v>
+        <v>0.06306001226727652</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H6">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.14538998022879</v>
+        <v>6.493894666666667</v>
       </c>
       <c r="N6">
-        <v>6.14538998022879</v>
+        <v>19.481684</v>
       </c>
       <c r="O6">
-        <v>0.1225496103267296</v>
+        <v>0.1270432658722128</v>
       </c>
       <c r="P6">
-        <v>0.1225496103267296</v>
+        <v>0.1490847317785038</v>
       </c>
       <c r="Q6">
-        <v>1.102757963302542</v>
+        <v>0.8450526776048888</v>
       </c>
       <c r="R6">
-        <v>1.102757963302542</v>
+        <v>7.605474098444001</v>
       </c>
       <c r="S6">
-        <v>0.1225496103267296</v>
+        <v>0.0511823033197223</v>
       </c>
       <c r="T6">
-        <v>0.1225496103267296</v>
+        <v>0.07498800158185212</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1301303333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.390391</v>
+      </c>
+      <c r="I7">
+        <v>0.4028730131292778</v>
+      </c>
+      <c r="J7">
+        <v>0.5029891437391611</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>14.3875515</v>
+      </c>
+      <c r="N7">
+        <v>28.775103</v>
+      </c>
+      <c r="O7">
+        <v>0.2814707697442357</v>
+      </c>
+      <c r="P7">
+        <v>0.2202031668645185</v>
+      </c>
+      <c r="Q7">
+        <v>1.8722568725455</v>
+      </c>
+      <c r="R7">
+        <v>11.233541235273</v>
+      </c>
+      <c r="S7">
+        <v>0.1133969771146774</v>
+      </c>
+      <c r="T7">
+        <v>0.1107598023498358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.1928755</v>
+      </c>
+      <c r="H8">
+        <v>0.385751</v>
+      </c>
+      <c r="I8">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J8">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>8.2840475</v>
+      </c>
+      <c r="N8">
+        <v>16.568095</v>
+      </c>
+      <c r="O8">
+        <v>0.162064909128062</v>
+      </c>
+      <c r="P8">
+        <v>0.1267883207199013</v>
+      </c>
+      <c r="Q8">
+        <v>1.59778980358625</v>
+      </c>
+      <c r="R8">
+        <v>6.391159214345</v>
+      </c>
+      <c r="S8">
+        <v>0.09677333086511704</v>
+      </c>
+      <c r="T8">
+        <v>0.063015171844872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.1928755</v>
+      </c>
+      <c r="H9">
+        <v>0.385751</v>
+      </c>
+      <c r="I9">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J9">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>10.55762366666667</v>
+      </c>
+      <c r="N9">
+        <v>31.672871</v>
+      </c>
+      <c r="O9">
+        <v>0.2065440016062932</v>
+      </c>
+      <c r="P9">
+        <v>0.2423785067907964</v>
+      </c>
+      <c r="Q9">
+        <v>2.036306943520167</v>
+      </c>
+      <c r="R9">
+        <v>12.217841661121</v>
+      </c>
+      <c r="S9">
+        <v>0.1233329973353875</v>
+      </c>
+      <c r="T9">
+        <v>0.1204647491993173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.1928755</v>
+      </c>
+      <c r="H10">
+        <v>0.385751</v>
+      </c>
+      <c r="I10">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J10">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.931556333333333</v>
+      </c>
+      <c r="N10">
+        <v>17.794669</v>
+      </c>
+      <c r="O10">
+        <v>0.1160419635630586</v>
+      </c>
+      <c r="P10">
+        <v>0.13617475034254</v>
+      </c>
+      <c r="Q10">
+        <v>1.144051893569833</v>
+      </c>
+      <c r="R10">
+        <v>6.864311361418999</v>
+      </c>
+      <c r="S10">
+        <v>0.06929178805297133</v>
+      </c>
+      <c r="T10">
+        <v>0.06768032926885176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.1928755</v>
+      </c>
+      <c r="H11">
+        <v>0.385751</v>
+      </c>
+      <c r="I11">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J11">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.460941333333333</v>
+      </c>
+      <c r="N11">
+        <v>16.382824</v>
+      </c>
+      <c r="O11">
+        <v>0.1068350900861377</v>
+      </c>
+      <c r="P11">
+        <v>0.1253705235037399</v>
+      </c>
+      <c r="Q11">
+        <v>1.053281790137333</v>
+      </c>
+      <c r="R11">
+        <v>6.319690740824</v>
+      </c>
+      <c r="S11">
+        <v>0.0637941154351976</v>
+      </c>
+      <c r="T11">
+        <v>0.06231051123646341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.179444749129084</v>
-      </c>
-      <c r="H7">
-        <v>0.179444749129084</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>14.3468717139337</v>
-      </c>
-      <c r="N7">
-        <v>14.3468717139337</v>
-      </c>
-      <c r="O7">
-        <v>0.2861012146676974</v>
-      </c>
-      <c r="P7">
-        <v>0.2861012146676974</v>
-      </c>
-      <c r="Q7">
-        <v>2.574470795493984</v>
-      </c>
-      <c r="R7">
-        <v>2.574470795493984</v>
-      </c>
-      <c r="S7">
-        <v>0.2861012146676974</v>
-      </c>
-      <c r="T7">
-        <v>0.2861012146676974</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.1928755</v>
+      </c>
+      <c r="H12">
+        <v>0.385751</v>
+      </c>
+      <c r="I12">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J12">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>6.493894666666667</v>
+      </c>
+      <c r="N12">
+        <v>19.481684</v>
+      </c>
+      <c r="O12">
+        <v>0.1270432658722128</v>
+      </c>
+      <c r="P12">
+        <v>0.1490847317785038</v>
+      </c>
+      <c r="Q12">
+        <v>1.252513180780667</v>
+      </c>
+      <c r="R12">
+        <v>7.515079084684</v>
+      </c>
+      <c r="S12">
+        <v>0.07586096255249046</v>
+      </c>
+      <c r="T12">
+        <v>0.07409673019665167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1928755</v>
+      </c>
+      <c r="H13">
+        <v>0.385751</v>
+      </c>
+      <c r="I13">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J13">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>14.3875515</v>
+      </c>
+      <c r="N13">
+        <v>28.775103</v>
+      </c>
+      <c r="O13">
+        <v>0.2814707697442357</v>
+      </c>
+      <c r="P13">
+        <v>0.2202031668645185</v>
+      </c>
+      <c r="Q13">
+        <v>2.77500618933825</v>
+      </c>
+      <c r="R13">
+        <v>11.100024757353</v>
+      </c>
+      <c r="S13">
+        <v>0.1680737926295583</v>
+      </c>
+      <c r="T13">
+        <v>0.1094433645146827</v>
       </c>
     </row>
   </sheetData>
